--- a/Issue log.xlsx
+++ b/Issue log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/ewp_mit_edu/Documents/MIT OL/AMPath - git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82A90DF-7238-424B-93BF-79531B549B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C82A90DF-7238-424B-93BF-79531B549B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6065E585-9D23-4438-A041-C59B6DA5B367}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eugene </t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -523,11 +526,15 @@
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11">
+        <v>45405</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>

--- a/Issue log.xlsx
+++ b/Issue log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitprod-my.sharepoint.com/personal/ewp_mit_edu/Documents/MIT OL/AMPath - git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C82A90DF-7238-424B-93BF-79531B549B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6065E585-9D23-4438-A041-C59B6DA5B367}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C82A90DF-7238-424B-93BF-79531B549B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2C8FE3F-46D0-49DA-8B6B-6782AFFE3E2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -97,12 +97,21 @@
   <si>
     <t>Closed</t>
   </si>
+  <si>
+    <t>Sorting &amp; applying revised data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python crashes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +128,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +189,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,6 +226,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +433,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -470,7 +511,7 @@
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>45398</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -482,11 +523,11 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -514,7 +555,7 @@
       <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>45393</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -526,13 +567,13 @@
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="19">
         <v>45405</v>
       </c>
       <c r="K3" s="7"/>
@@ -552,27 +593,31 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+    <row r="4" spans="1:26" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="16">
+        <v>45406</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
